--- a/Amazon Web-Scraper.xlsx
+++ b/Amazon Web-Scraper.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -25,187 +25,181 @@
     <t>Search Term</t>
   </si>
   <si>
-    <t>Wireless Earbuds, Tribit 100H Playtime Bluetooth 5.0 IPX8 Waterproof Touch Control Ture Wireless Bluetooth Earbuds with Mic Earphone in-Ear Deep Bass Built-in Mic Bluetooth Headphones, Flybuds 3</t>
-  </si>
-  <si>
-    <t>Apple AirPods with Charging Case</t>
-  </si>
-  <si>
-    <t>True Wireless Earbuds, Bluetooth 5.0 in-Ear Headphones with Charging Box, IPX7 Waterproof Stereo Headphones in-Ear Earphones, Headset Built in Mic, Premium Sound with Deep Bass, Sport/Work</t>
-  </si>
-  <si>
-    <t>Monster Wireless Earbuds, Bluetooth 5.0 in-Ear Headphones with Charging Case, Stereo Earphones Deep Bass Sound, IPX5 Waterproof, Built-in Mic, Clear Call, Secure Fit for Sports</t>
-  </si>
-  <si>
-    <t>Monster Wireless Earbuds,Super Fast Charge,Bluetooth 5.0 in-Ear Stereo Headphones with USB-C Charging Case,Built-in Mic for Clear Calls,Water Resistant Design for Sports,Black.</t>
-  </si>
-  <si>
-    <t>Hi-Res Extra Bass Earbuds Noise Isolating in-Ear Headphones Wired Earbuds with Microphone for iPhone, iPod, iPad, MP3, Huawei, Samsung, Lightweight Earphones with Volume Control 3.5mm Jack Headphones</t>
-  </si>
-  <si>
-    <t>AmazonBasics In-Ear Wired Headphones, Earbuds with Microphone, Black</t>
-  </si>
-  <si>
-    <t>slitinto Wireless Earbuds Bluetooth 5.0 Earphones, IPX7 Waterproof Bluetooth Earbuds with 30H Playtime, TWS Stereo in-Ear Sports Headset with Charging Case, Mic, Touch Control for Running/Workout</t>
-  </si>
-  <si>
-    <t>Donerton Wireless Earbuds, Bluetooth 5.0 Headphones IP8 Waterproof Earbuds, 80 Playtime, in Ear Earphones with Mic, Deep Bass 3D Stereo, Charging Case, Sports, Work Out, Easy Pairing, Power Bank</t>
-  </si>
-  <si>
-    <t>Earbuds</t>
-  </si>
-  <si>
-    <t>JUKSTG Earphones Noise Isolating in-Ear Headphones with Pure Sound and Powerful Bass with High Sensitivity Microphone and Volume Control</t>
-  </si>
-  <si>
-    <t>Sony MDRZX110 Over-Ear Headphones (Black)</t>
-  </si>
-  <si>
-    <t>Apple EarPods with Lightning Connector</t>
-  </si>
-  <si>
-    <t>Sony MDREX15LP/B In-Ear Headphones (Black)</t>
-  </si>
-  <si>
-    <t>Panasonic RPTCM125K ErgoFit In-Ear Earbud Headphones with Mic and Controller, Black</t>
-  </si>
-  <si>
-    <t>Sennheiser CX 80S in-Ear Headphones with in-line One-Button Smart Remote – Black</t>
-  </si>
-  <si>
-    <t>Wireless Bluetooth earbuds, Bluetooth 5.0 in-ear headphones, 6D stereo IPX5 sweatproof, clear binaural call microphone, fitness, entertainment time charging box, noise reduction mini earbuds, sweatproof for mobile phones and Android Gym Sport（Black）</t>
-  </si>
-  <si>
-    <t>OKIMO Wireless Earbuds Bluetooth 5 Headphones with 3500mAh LED Charging Case, IPX7 Waterproof TWS Stereo Earphones in Ear, Hands-Free Headset with Mic, Touch Control, 125 Hours Playback for for Work / Home Office (Black)</t>
-  </si>
-  <si>
-    <t>Monster Wireless Earbuds, Bluetooth 5.0 in-Ear Stereo Headphones, Built-in Mics for Clear Calls, USB-C Quick Charge, 24-Hour Playtime, Single/Twin Mode for iPhone/Android</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds, UMIDIGI AirBuds U Wireless Headphones with Microphones, Bluetooth 5.1 Earphones in-Ear, Touch Control Bluetooth Earbuds, 24H Playing Time for Work and Home Office.</t>
-  </si>
-  <si>
-    <t>Wireless Bluetooth 5.0 Earbuds Headset in-Ear Noise Canceling Sport Headphones with LED Digital Shows Charging Case,Stereo Touch Control Waterproof Earphones Built-in Mic for Workout/Running/Gym (Black)</t>
-  </si>
-  <si>
-    <t>Skullcandy Dime True Wireless Earbuds, True Black (S2DMW-P740)</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds, Bluetooth Earbuds Bass+ Stereo Sound/USB-C Fast Charging/28H Playtime/IPX7 Waterproof Wireless Earphones Sport Headphones in Ear Bluetooth Earphones with Mic for Workout Gym (Black)</t>
-  </si>
-  <si>
-    <t>Sony MDR-XB50AP/B Extra Bass Earbud Headphones (Black)</t>
-  </si>
-  <si>
-    <t>Apple EarPods with 3.5mm Headphone Plug</t>
-  </si>
-  <si>
-    <t>Apple AirPods Pro</t>
-  </si>
-  <si>
-    <t>Bluetooth Earbuds, Wireless Earbuds Pink, Deep Bass Bluetooth Earphones w/Ergonomic Design/Mono&amp;Twin Mode/25 Hrs/IPX8 Waterproof/Microphones/Type-C Charging for Sport</t>
-  </si>
-  <si>
-    <t>Soundcore by Anker Life A1 True Wireless Earbuds, Powerful Customized Sound, 35H Playtime, Wireless Charging, USB-C Fast Charge, IPX7 Waterproof, Button Control, Bluetooth Earbuds, Commute, Sports</t>
-  </si>
-  <si>
-    <t>Bluetooth Earbuds,MDots Wireless Headphones,Immersive Stereo Sound Wireless Earbuds in Ear,20H Playtime IPX6 Waterproof Bluetooth Headphones 5.0 with Mic Single/Twin Mode for Sports, Workout</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds, AIKELA Bluetooth 5.1 Earbuds Waterproof Touch Control Wireless Earphones with Hi-Fi Stereo Audio, Type-C Quick Charging Case, 15H Playtime, Single/Twin Mode, Built-in Mic for Gym, Home, Office</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds, Bluetooth Earbuds with CVC8.0 Noise Cancelling Mics, 35H Playtime/Deep Bass/USB-C Quick Charge/Touch Control, IPX8 Waterproof Headphones for Work Sport</t>
-  </si>
-  <si>
-    <t>ULIX Rider Earphones in-Ear Headphones with Mic, 3 Years Warranty, with Anti-Tangle, Braided Cable, Microphone, Super Resistant, 48 Ω Driver, Intense Bass, Earbuds for Samsung, Computer, Laptop</t>
-  </si>
-  <si>
-    <t>GO5 Mini Wireless Earbuds Bluetooth Headphones Premium Fidelity Sound Quality Wireless Charging Case Digital LED Intelligence Display IPX7 Waterproof Earphones Built-in Mic Headset for Sport Black</t>
-  </si>
-  <si>
-    <t>APEKX Bluetooth Headphones True Wireless Earbuds with Charging Case IPX7 Waterproof TWS Stereo Sound Earphones Built-in Mic in-Ear Headsets Deep Bass for Sport Running Black</t>
-  </si>
-  <si>
-    <t>JBL Tune 125TWS True Wireless In-Ear Bluetooth Headphones with up to 32 Hours of Combined Music Playtime - Black</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Buds Live (Black) - True Wireless, Active Noise Cancelling, Wireless Charging Case (CAD Version)</t>
-  </si>
-  <si>
-    <t>Vipcall Wireless Earbuds, in-Ear Bluetooth Headphones, Immersive Bass Sound, IPX8 Waterproof Sport Earphones, Touch Control Bluetooth Earbuds, 25 Hrs w/USB-C Charging Case/Twin&amp;Mono Mode/Mics, Black</t>
-  </si>
-  <si>
-    <t>Anker Soundcore Life P2 True Wireless Earbuds with 4 Microphones,CVC 8.0 Noise Reduction, Graphene Driver, Clear Sound, USB C, 40H Playtime, IPX7 Waterproof, Wireless Earphones for Work, Home Office</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds, Bluetooth 5.0 Active Noise Cancelling Earphones 4 Built-in Mics in-Ear Earbuds with IPX5 Waterproof 19H Playtime Deep Bass for Music and Clear Calls</t>
-  </si>
-  <si>
-    <t>Wireless Bluetooth Earbuds, AIKELA Active Noise Cancelling Ear Buds with 4 Mics, Activate Voice Assistant, Hi-FI Stereo Sound in-Ear Headphones with Wireless Charging Box, Touch Control Bluetooth 5.0 Sport Earphones Support 3 Play Modes</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds, Bluetooth 5.0 Earbuds Waterproof Wireless Earphones, with 35H Playtime, Hi-Fi Audio Deep Bass, Noise-Canceling Mic, in-Ear Ear Buds with Charging Case, Sensitive Touch Control Bluetooth Sport Earphones, for Samsung/iPhone/Android</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds Bluetooth 5.0 Headphones,40H Playtime w/Wireless Charging Case,IP6 Waterproof/Button Control/TWS Stereo Bluetooth Earphones in-Ear w/Mic for Running Workout Gym</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds, GOSCIEN Headphones Wireless Immersive Bass Sound Bluetooth 5.0 Headphones with Noise Cancellation Mic, IPX5 Waterproof Bluetooth Earphone with Charging Case for Work, Sports</t>
-  </si>
-  <si>
-    <t>New Beats Studio Buds – True Wireless Noise Cancelling Earbuds – Compatible with Apple &amp; Android, Built-in Microphone, IPX4 Rating, Sweat Resistant Earphones, Class 1 Bluetooth Headphones - Black</t>
-  </si>
-  <si>
-    <t>Soundcore by Anker Life P3 Noise Cancelling Earbuds, Thumping Bass, 6 Mics for Clear Calls, Multi Mode Noise Cancelling, 35H Playtime, Wireless Charging, Soundcore App, Customized Sound, Gaming Mode (black)</t>
-  </si>
-  <si>
-    <t>ULIX Rider Earphones in-Ear Headphones with Mic, 3 Years Warranty, with Anti-Tangle, Reinforced Cable, Microphone, Super Resistant, 48 Ω Driver, Intense Bass, Earbuds for Samsung, Computer, Laptop</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds, 48Hours Playtime True Wireless Bluetooth Earbuds Noise Reduction Stereo Call Built-in Mics Wireless Earphones Extra Bass Sound E90 Wireless Headphones Waterpoof IPX8 Bluetooth V5.0 Headsets with Type-C Port Charging Case</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds Bluetooth 5.0 Wireless Headphones in-Ear Stereo Noise Cancelling Bluetooth Earbuds with LED Charging Case IPX7 Waterproof Touch Control Headset Built-in Mic Earphones for Sport/Work</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds Bluetooth Earbuds Bonkim with CVC8.0 Noise Cancelling in-Ear Headphones Bluetooth 5.1 Stereo Earphones with Touch Control IPX7 Waterproof,30H Cyclic Playtime for Sports, Work(White)</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds SoundPEATS TrueAir2 Earphones Bluetooth V5.2 with 4 Mic, CVC Noise Cancellation for Clear Calls Headphones Qualcomm 3040, aptX Codec, USB C, 25 Hours Playtime</t>
-  </si>
-  <si>
-    <t>Panasonic RPHJE120K In-Ear Headphone, Black</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds, EarFun Air 4 Mics Noise Canceling, Bluetooth 5.0 Earbuds Touch Control, Wireless Charging, USB-C Quick Charge, Deep Bass, in-Ear Detection Headphones, 35H Playtime, IPX7 Waterproof</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds, MDots Bluetooth Earbuds Rhythm Stereo Sound Wireless Earphones in Ear w/20 Hrs Playtime, IPX6 Waterproof Sports Headphones with Mic Single/Twin Mode for Running, Workout</t>
-  </si>
-  <si>
-    <t>2 Pack Earbuds/Headphones/Earphones with 3.5mm Wired in Ear Headphone Plug(Built-in Microphone &amp; Volume Control) Compatible with iPhone,iPad,iPod,PC,MP3/4,Android -White</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds, MDots Bluetooth Earbuds Immersive Stereo Sound, Bluetooth Earphones Twin&amp;Mono Mode, Wireless Headphones in Ear with Microphones/Precise Button Control/IPX6 Waterproof for Sport</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Buds+ (Black)</t>
-  </si>
-  <si>
-    <t>Apple AirPods with Wireless Charging Case</t>
-  </si>
-  <si>
-    <t>Truly Wireless Earbuds, Tronsmart Noise Cancelling Earbuds with Charging Case, Built-in Clear Call Mics, Hi-Fi Stereo Audio Bluetooth Headphones, Sensitive Touch &amp; Waterproof Earphones for Sports Gaming Work Travel</t>
-  </si>
-  <si>
-    <t>Wireless Earbuds, MS3 Bluetooth Earbuds w/Wireless Charging Case/USB-C Charge Bluetooth Headphones, Punchy Bass/35H Playtime/Smart Control/3 Mode, IPX8 Waterproof Sports Bluetooth Earphones</t>
-  </si>
-  <si>
-    <t>JBL Tune 205BT Wireless In-Ear Bluetooth Headphones with 3-Button Remote/Mic and up to 6 Hours of Playtime - Silver</t>
-  </si>
-  <si>
-    <t>JBL Tune 225TWS True Wireless Bluetooth Earbuds with up to 25 Hours of Combined Music Playtime - Black</t>
+    <t>AmazonBasics Colored Pencils - 72-Count Set</t>
+  </si>
+  <si>
+    <t>Jovely Wood-Cased HB 5 Pastel Color Pencils for Kids, Students and Teachers at School Classroom, Office and Home, 48 Bulk Pack</t>
+  </si>
+  <si>
+    <t>Zebra DelGuard Mechanical Pencil 0.3mm, 3 Color Body (Black/Blue/White), 3-pack, Sticky Notes Value Set</t>
+  </si>
+  <si>
+    <t>Pentel Orenz Mechanical Pencil, 0.5mm Point Size, Black Barrel, 1 Pack - PP505BP-A</t>
+  </si>
+  <si>
+    <t>Dixon 12055 Number 2 HB Wood Pencils, Bagged, 10-Count</t>
+  </si>
+  <si>
+    <t>Crayola 24 Coloured Pencils Arts &amp; Crafts</t>
+  </si>
+  <si>
+    <t>BIC Xtra-Sparkle Mechanical Pencil, Medium Point (0.7 mm), 24-Count, Refillable Design for Long-Lasting Use</t>
+  </si>
+  <si>
+    <t>3PCS 2.0 mm Mechanical Pencils with Bonus 4 Cases Lead Refills, Color and Black Refills for Draft Drawing, Writing, Crafting, Art Sketching, Carpenter.</t>
+  </si>
+  <si>
+    <t>AmazonBasics Wood-cased Bulk Pencils - #2 HB Pencil - Box of 144</t>
+  </si>
+  <si>
+    <t>Staedtler 13246CB18P11TH The Premium Pencil, Norica, HB2 special lead, 12 Plus BONUS 6 for Total 18 Count</t>
+  </si>
+  <si>
+    <t>Maped Black Peps Graphite No.2 Pencils with Erasers, Includes Sharpener, 12 Pack (851748)</t>
+  </si>
+  <si>
+    <t>AmazonBasics Pre-sharpened Wood Cased #2 HB Pencils, 30 Pack</t>
+  </si>
+  <si>
+    <t>Staedtler Norica 101 Piece Set - 50 Pencil + 50 Eraser Caps + 1 Sharpner</t>
+  </si>
+  <si>
+    <t>BIC Pencils Mechanical Pencils, Black, 0.7mm, Dozen Box</t>
+  </si>
+  <si>
+    <t>BIC Xtra-Life Mechanical Pencil, 0.7 mm, 40-Count</t>
+  </si>
+  <si>
+    <t>Ticonderoga Tri-Write Triangular Standard Size Pencils, Number 2 Soft, Set of 8, Yellow (13852)</t>
+  </si>
+  <si>
+    <t>Maped 851721 Black Peps Triangular Graphite Hb Pencil With Eraser (box Of 12 Pencils) Black</t>
+  </si>
+  <si>
+    <t>Dixon Ticonderoga Wood-Cased Pencils, 2 HB, Presharpened, Striped Barrels, Box of 10 (13910)</t>
+  </si>
+  <si>
+    <t>Flexible Bendy Pencil, 30 PCS Flexible Soft Pencil Colorful Stripe Soft Pencils with Eraser as Gift for Students or Children,Magic Bend Toys School Stationary</t>
+  </si>
+  <si>
+    <t>BiC PGEP81-BLK PGEP81 Xtra Fun Graphite Pencils Black No. 2 HB, 8-Pack</t>
+  </si>
+  <si>
+    <t>Staedtler Norica 50 Graphite HB2 Pencils +50 eraser caps +1 Sharpener</t>
+  </si>
+  <si>
+    <t>Staedtler Double-hole Tub Pencil Sharpener - 2 Hole(s) - Plastic</t>
+  </si>
+  <si>
+    <t>AmazonBasics Wood-cased Bulk Pencils - #2 HB Pencil - Box of 96</t>
+  </si>
+  <si>
+    <t>Bewana 5 Pcs Desk Organizer Pen Holder Pencil Marker Stationery Storage Container with Cup Brush Craft Organizer for Office School Home Supplies, Set of 5, 16 Compartmens, Translucent White</t>
+  </si>
+  <si>
+    <t>LVYATUO Colorful Cute Diamond Gel Pen Candy Color Milky Cow Pens Set Writing Kawaii Stationery School Office Supplies Set of 12 Colors (Milky Cow)</t>
+  </si>
+  <si>
+    <t>Clear Tool Bag/Pouch Waterproof Pack of 5 - Heavy Duty Multipurpose Tool Pouch with Sturdy Zipper - Durable Tool Bag Used for Makeup Storage, Tool Storage</t>
+  </si>
+  <si>
+    <t>TICONDEROGA Pencils, Wood-Cased, Pre-Sharpened, Graphite #2 HB Soft, Yellow, 240-Pack (14634)</t>
+  </si>
+  <si>
+    <t>Maped Black'Peps Triangular Graphite #2 Pencils School Pack, Pack of 72 (851759ZV)</t>
+  </si>
+  <si>
+    <t>TICONDEROGA Pencils, Wood-Cased #2 HB Soft, Pre-Sharpened with Eraser, Yellow, 72-Pack (13972)</t>
+  </si>
+  <si>
+    <t>BiC MV7P41-BLK Velocity Original Mechanical Pencil BLACK 0.7mm 4-Pack, Black</t>
+  </si>
+  <si>
+    <t>Ticonderoga Neon Pencils, 2 Pre-Sharpened Wood Pencils with Erasers, 18-Count, 13018</t>
+  </si>
+  <si>
+    <t>My First Ticonderoga Primary Size #2 Beginner Pencils, Pre-Sharpened, 4 Pencils with Bonus Sharpener, Yellow (33309)</t>
+  </si>
+  <si>
+    <t>Dixon Ticonderoga 13830 Wood-Cased 2HB Pencils, Pre-Sharpened, Box of 30, Yellow</t>
+  </si>
+  <si>
+    <t>Amazon Basics Mechanical Pencils, Fine Point (0.5 mm) - 24-Pack</t>
+  </si>
+  <si>
+    <t>BIC Evolution Cased Pencil, 2 Lead, Yellow Barrel, 24-Count</t>
+  </si>
+  <si>
+    <t>Paper Mate Mechanical Pencils, Write Bros. Comfort #2 Pencil with Comfort Grip, Great for Long Writing Tasks, 0.7mm, 12 Count</t>
+  </si>
+  <si>
+    <t>Paper Mate Canadiana Pencil, Classic Wood Pencil № 2, Box of 12, HB (7364022420)</t>
+  </si>
+  <si>
+    <t>Staedtler Pencil Mars Lumograph, 12 Pieces Set (100 G12)</t>
+  </si>
+  <si>
+    <t>Dixon 19972 Carpenter Pencil with Medium Graphite Core, 7" (Pack of 12)</t>
+  </si>
+  <si>
+    <t>2B Kids Pencils for Toddlers, Beginners, Kindergarten and Preschoolers (2 Packs), Short Length with Jumbo Triangular Shape, Big 5MM Core, Pencil Sharpener and Eraser Included (Natural Wood)</t>
+  </si>
+  <si>
+    <t>48 Rainbow Color Pencils, Colorful Wood Pencils Bright Round Pencils with Eraser Top for Home Office School Classroom Supplies</t>
+  </si>
+  <si>
+    <t>Crayola 60 Coloured Pencils Arts &amp; Crafts</t>
+  </si>
+  <si>
+    <t>LUTER 24pcs Short Fat Pencils Mini Wood Pencils Round Pencils Short Wood Pencils Bulk for Preschoolers Toddlers Kindergarten School Home (Triangular)</t>
+  </si>
+  <si>
+    <t>Ticonderoga No. 2 HB Woodcase Pencils, Yellow, Pack of 10+2 (33892CB)</t>
+  </si>
+  <si>
+    <t>International Arrivals is newly OOLY Ninja Black Wood Pencils, 12-Count (128-78)</t>
+  </si>
+  <si>
+    <t>10 PCS 2mm Mechanical Pencils Set, 2B Mechanical Automatic Pencils Set with 4 Cases Color and Black 2B Lead Refills Black Velvet Bag for Writing Draft Drawing Crafting Art Sketching</t>
+  </si>
+  <si>
+    <t>Crayola 24 Twistables Coloured Pencils Arts &amp; Crafts</t>
+  </si>
+  <si>
+    <t>Bostitch Personal Electric Pencil Sharpener, Blue (EPS4-BLUE)</t>
+  </si>
+  <si>
+    <t>Hexagonal HB pencils, 40 natural wood grain pencils, children's stationery</t>
+  </si>
+  <si>
+    <t>BIC Pencil Xtra Strong (colorful barrels), Thick Point (0.9 mm), 24-Count</t>
+  </si>
+  <si>
+    <t>Dixon Ticonderoga Wood-Cased #2 HB Pencils, Box of 96, Yellow (13872)</t>
+  </si>
+  <si>
+    <t>iScholar Gross Pack #2 Yellow Pencils, 144 Count - 33144</t>
+  </si>
+  <si>
+    <t>Dixon 18997 Primary Printer Number 1 Thick Black Lead Pencils, Primary Size, 13/32-Inch Diameter (Box of 12)</t>
+  </si>
+  <si>
+    <t>Dixon 12058 Number 2 HB Economy Pencils, Bagged, 20-Count, Yellow</t>
+  </si>
+  <si>
+    <t>ARTEZA #2 HB Wood Cased Graphite Pencils, Pack of 72, Bulk, Pre-Sharpened with Latex Free Erasers, Bulk pack, Smooth write for Exams, School, Office, Drawing and Sketching</t>
+  </si>
+  <si>
+    <t>12 Colors Creative Cute Milk Cow Pen Colorful Gel Pen Sweet-style Design Pin Type Ink Pen</t>
+  </si>
+  <si>
+    <t>MINISO x Marvel - Pen Stand Pencil Stand Desk Organizer,Spiderman</t>
+  </si>
+  <si>
+    <t>scriptract Colored Pencils Oil Based Colored Pencils Artist Quality Perfect for Adults Coloring and Kids Doodling Drawing Painting Sketching Writing (24 Colors)</t>
+  </si>
+  <si>
+    <t>pencils</t>
   </si>
 </sst>
 </file>
@@ -606,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -639,10 +633,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -650,10 +644,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -661,54 +655,54 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -716,10 +710,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -727,10 +721,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -738,32 +732,32 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -771,10 +765,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -782,10 +776,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -793,10 +787,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -804,10 +798,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -815,10 +809,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -826,10 +820,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -837,10 +831,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -848,10 +842,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -859,10 +853,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -870,10 +864,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -881,10 +875,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -892,10 +886,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -903,505 +897,428 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B48">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B50">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B55">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B59">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B61">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B62">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B64">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B65">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66">
-        <v>53</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67">
-        <v>29</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69">
-        <v>199</v>
-      </c>
-      <c r="C69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70">
-        <v>34</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71">
-        <v>149</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72">
-        <v>46</v>
-      </c>
-      <c r="C72" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
